--- a/docs/attack-excel-files/v18.1/ics-attack/ics-attack-v18.1-campaigns.xlsx
+++ b/docs/attack-excel-files/v18.1/ics-attack/ics-attack-v18.1-campaigns.xlsx
@@ -279,13 +279,13 @@
     <t>(Citation: Lisa Zahner December 2023)</t>
   </si>
   <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton),(Citation: Charles McLellan March 2016),(Citation: Andy Greenberg June 2017),(Citation: Ukraine15 - EISAC - 201603),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
-  </si>
-  <si>
-    <t>,(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Dragos-Sandworm-Ukraine-2022)</t>
+    <t>(Citation: Booz Allen Hamilton),(Citation: Charles McLellan March 2016),(Citation: Ukraine15 - EISAC - 201603),(Citation: Booz Allen Hamilton),(Citation: Andy Greenberg June 2017),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
+  </si>
+  <si>
+    <t>,(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Dragos-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022)</t>
   </si>
   <si>
     <t>(Citation: Dragos FROSTYGOOP 2024),(Citation: Dragos FROSTYGOOP 2024),</t>
@@ -294,10 +294,10 @@
     <t>,(Citation: Marshall Abrams July 2008),</t>
   </si>
   <si>
-    <t>(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TRITON 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: Triton-EENews-2017),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TRITON 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018)</t>
-  </si>
-  <si>
-    <t>,(Citation: CISA AA23-335A IRGC-Affiliated December 2023),(Citation: Frank Bajak and Marc Levy December 2023),(Citation: CISA Unitronics November 2023),(Citation: Lisa Zahner December 2023),(Citation: Jamie Tarabay and Katrina Manson December 2023),(Citation: WPXI Aliquippa Water November 2023),(Citation: CISA AA23-335A IRGC-Affiliated December 2023)</t>
+    <t>(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018),(Citation: Triton-EENews-2017),(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018)</t>
+  </si>
+  <si>
+    <t>,(Citation: Frank Bajak and Marc Levy December 2023),(Citation: Jamie Tarabay and Katrina Manson December 2023),(Citation: Lisa Zahner December 2023),(Citation: CISA AA23-335A IRGC-Affiliated December 2023),(Citation: WPXI Aliquippa Water November 2023),(Citation: CISA Unitronics November 2023),(Citation: CISA AA23-335A IRGC-Affiliated December 2023)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/docs/attack-excel-files/v18.1/ics-attack/ics-attack-v18.1-campaigns.xlsx
+++ b/docs/attack-excel-files/v18.1/ics-attack/ics-attack-v18.1-campaigns.xlsx
@@ -279,13 +279,13 @@
     <t>(Citation: Lisa Zahner December 2023)</t>
   </si>
   <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Charles McLellan March 2016),(Citation: Ukraine15 - EISAC - 201603),(Citation: Booz Allen Hamilton),(Citation: Andy Greenberg June 2017),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
-  </si>
-  <si>
-    <t>,(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Dragos-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022)</t>
+    <t>(Citation: Booz Allen Hamilton),(Citation: Ukraine15 - EISAC - 201603),(Citation: Charles McLellan March 2016),(Citation: Booz Allen Hamilton),(Citation: Andy Greenberg June 2017),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
+  </si>
+  <si>
+    <t>,(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Dragos-Sandworm-Ukraine-2022)</t>
   </si>
   <si>
     <t>(Citation: Dragos FROSTYGOOP 2024),(Citation: Dragos FROSTYGOOP 2024),</t>
@@ -294,10 +294,10 @@
     <t>,(Citation: Marshall Abrams July 2008),</t>
   </si>
   <si>
-    <t>(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018),(Citation: Triton-EENews-2017),(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018)</t>
-  </si>
-  <si>
-    <t>,(Citation: Frank Bajak and Marc Levy December 2023),(Citation: Jamie Tarabay and Katrina Manson December 2023),(Citation: Lisa Zahner December 2023),(Citation: CISA AA23-335A IRGC-Affiliated December 2023),(Citation: WPXI Aliquippa Water November 2023),(Citation: CISA Unitronics November 2023),(Citation: CISA AA23-335A IRGC-Affiliated December 2023)</t>
+    <t>(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON 2018),(Citation: Triton-EENews-2017),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018)</t>
+  </si>
+  <si>
+    <t>,(Citation: CISA Unitronics November 2023),(Citation: Frank Bajak and Marc Levy December 2023),(Citation: Jamie Tarabay and Katrina Manson December 2023),(Citation: WPXI Aliquippa Water November 2023),(Citation: Lisa Zahner December 2023),(Citation: CISA AA23-335A IRGC-Affiliated December 2023),(Citation: CISA AA23-335A IRGC-Affiliated December 2023)</t>
   </si>
   <si>
     <t>source ID</t>
@@ -1432,16 +1432,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1464,7 +1456,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1472,35 +1464,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1803,52 +1777,52 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1865,7 +1839,7 @@
       <c r="D2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F2" t="s">
@@ -1909,7 +1883,7 @@
       <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F3" t="s">
@@ -1953,7 +1927,7 @@
       <c r="D4" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F4" t="s">
@@ -1997,7 +1971,7 @@
       <c r="D5" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F5" t="s">
@@ -2041,7 +2015,7 @@
       <c r="D6" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F6" t="s">
@@ -2085,7 +2059,7 @@
       <c r="D7" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F7" t="s">
@@ -2129,7 +2103,7 @@
       <c r="D8" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F8" t="s">
@@ -2183,43 +2157,43 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>102</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2442,43 +2416,43 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>102</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5079,43 +5053,43 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>102</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5338,13 +5312,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>396</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>397</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5355,7 +5329,7 @@
       <c r="B2" t="s">
         <v>422</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>446</v>
       </c>
     </row>
@@ -5366,7 +5340,7 @@
       <c r="B3" t="s">
         <v>423</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>447</v>
       </c>
     </row>
@@ -5377,7 +5351,7 @@
       <c r="B4" t="s">
         <v>424</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>448</v>
       </c>
     </row>
@@ -5388,7 +5362,7 @@
       <c r="B5" t="s">
         <v>425</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>449</v>
       </c>
     </row>
@@ -5399,7 +5373,7 @@
       <c r="B6" t="s">
         <v>426</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>450</v>
       </c>
     </row>
@@ -5410,7 +5384,7 @@
       <c r="B7" t="s">
         <v>427</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>451</v>
       </c>
     </row>
@@ -5421,7 +5395,7 @@
       <c r="B8" t="s">
         <v>428</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>452</v>
       </c>
     </row>
@@ -5432,7 +5406,7 @@
       <c r="B9" t="s">
         <v>429</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>453</v>
       </c>
     </row>
@@ -5443,7 +5417,7 @@
       <c r="B10" t="s">
         <v>430</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>454</v>
       </c>
     </row>
@@ -5454,7 +5428,7 @@
       <c r="B11" t="s">
         <v>431</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>455</v>
       </c>
     </row>
@@ -5465,7 +5439,7 @@
       <c r="B12" t="s">
         <v>432</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>456</v>
       </c>
     </row>
@@ -5476,7 +5450,7 @@
       <c r="B13" t="s">
         <v>433</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>457</v>
       </c>
     </row>
@@ -5487,7 +5461,7 @@
       <c r="B14" t="s">
         <v>434</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>458</v>
       </c>
     </row>
@@ -5498,7 +5472,7 @@
       <c r="B15" t="s">
         <v>435</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>459</v>
       </c>
     </row>
@@ -5509,7 +5483,7 @@
       <c r="B16" t="s">
         <v>436</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>460</v>
       </c>
     </row>
@@ -5520,7 +5494,7 @@
       <c r="B17" t="s">
         <v>437</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>461</v>
       </c>
     </row>
@@ -5531,7 +5505,7 @@
       <c r="B18" t="s">
         <v>438</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>462</v>
       </c>
     </row>
@@ -5542,7 +5516,7 @@
       <c r="B19" t="s">
         <v>439</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>463</v>
       </c>
     </row>
@@ -5553,7 +5527,7 @@
       <c r="B20" t="s">
         <v>440</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>464</v>
       </c>
     </row>
@@ -5564,7 +5538,7 @@
       <c r="B21" t="s">
         <v>441</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>465</v>
       </c>
     </row>
@@ -5575,7 +5549,7 @@
       <c r="B22" t="s">
         <v>442</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>466</v>
       </c>
     </row>
@@ -5586,7 +5560,7 @@
       <c r="B23" t="s">
         <v>443</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>467</v>
       </c>
     </row>
@@ -5597,7 +5571,7 @@
       <c r="B24" t="s">
         <v>423</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>447</v>
       </c>
     </row>
@@ -5608,7 +5582,7 @@
       <c r="B25" t="s">
         <v>440</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>464</v>
       </c>
     </row>
@@ -5619,7 +5593,7 @@
       <c r="B26" t="s">
         <v>444</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>457</v>
       </c>
     </row>
@@ -5630,7 +5604,7 @@
       <c r="B27" t="s">
         <v>432</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>456</v>
       </c>
     </row>
@@ -5641,7 +5615,7 @@
       <c r="B28" t="s">
         <v>428</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>452</v>
       </c>
     </row>
@@ -5652,7 +5626,7 @@
       <c r="B29" t="s">
         <v>445</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>468</v>
       </c>
     </row>
@@ -5663,7 +5637,7 @@
       <c r="B30" t="s">
         <v>430</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>454</v>
       </c>
     </row>
@@ -5674,7 +5648,7 @@
       <c r="B31" t="s">
         <v>427</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>451</v>
       </c>
     </row>
@@ -5685,7 +5659,7 @@
       <c r="B32" t="s">
         <v>439</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>463</v>
       </c>
     </row>
@@ -5696,7 +5670,7 @@
       <c r="B33" t="s">
         <v>424</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>448</v>
       </c>
     </row>
@@ -5707,7 +5681,7 @@
       <c r="B34" t="s">
         <v>434</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>458</v>
       </c>
     </row>
@@ -5718,7 +5692,7 @@
       <c r="B35" t="s">
         <v>437</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>461</v>
       </c>
     </row>
@@ -5729,7 +5703,7 @@
       <c r="B36" t="s">
         <v>429</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>453</v>
       </c>
     </row>
@@ -5740,7 +5714,7 @@
       <c r="B37" t="s">
         <v>438</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>462</v>
       </c>
     </row>
